--- a/2016/2016 FRC Scouting Form/2016_FRC_Scouting_Data_TEMPLATE.xlsx
+++ b/2016/2016 FRC Scouting Form/2016_FRC_Scouting_Data_TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mduffy\Documents\Visual Studio 2010\Projects\2016 FRC Scouting Form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mduffy\Documents\GitHub\1732_Projects\2016\2016 FRC Scouting Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Scout_Name</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Robot_Disabled</t>
+  </si>
+  <si>
+    <t>Time_Disabled</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -471,11 +477,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="16.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="15.7109375" style="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="24.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -540,12 +570,18 @@
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
